--- a/backend/utils/Ejercicios UT 6.xlsx
+++ b/backend/utils/Ejercicios UT 6.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Realiza la higiene de manos.</t>
+  </si>
+  <si>
+    <t>0_1_2</t>
   </si>
   <si>
     <t>int2</t>
@@ -3328,16 +3331,16 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3346,18 +3349,18 @@
         <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3366,18 +3369,18 @@
         <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1">
         <v>1.0</v>
@@ -3386,18 +3389,18 @@
         <v>28</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <v>1.0</v>
@@ -3406,18 +3409,18 @@
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>1.0</v>
@@ -3426,18 +3429,18 @@
         <v>28</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
@@ -3446,18 +3449,18 @@
         <v>28</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -3466,18 +3469,18 @@
         <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>1.0</v>
@@ -3486,18 +3489,18 @@
         <v>28</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
@@ -3506,18 +3509,18 @@
         <v>28</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
         <v>1.0</v>
@@ -3526,15 +3529,15 @@
         <v>28</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>1.0</v>
@@ -3543,18 +3546,18 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1">
         <v>1.0</v>
@@ -3563,18 +3566,18 @@
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1">
         <v>1.0</v>
@@ -3583,29 +3586,29 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
@@ -3614,18 +3617,18 @@
         <v>28</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -3634,18 +3637,18 @@
         <v>28</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1">
         <v>1.0</v>
@@ -3654,19 +3657,19 @@
         <v>28</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1">
         <v>1.0</v>
@@ -3677,10 +3680,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1">
         <v>1.0</v>
@@ -3689,18 +3692,18 @@
         <v>28</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1">
         <v>1.0</v>
@@ -3709,18 +3712,18 @@
         <v>28</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1">
         <v>0.1</v>
@@ -3731,10 +3734,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1">
         <v>0.1</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1">
         <v>0.1</v>
@@ -3759,10 +3762,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1">
         <v>0.1</v>
@@ -3773,10 +3776,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1">
         <v>0.1</v>
@@ -3787,10 +3790,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1">
         <v>0.1</v>
@@ -3801,10 +3804,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1">
         <v>0.1</v>
@@ -3815,10 +3818,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1">
         <v>0.1</v>
@@ -3829,10 +3832,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1">
         <v>0.1</v>
@@ -3843,10 +3846,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1">
         <v>0.1</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>57</v>
@@ -3865,8 +3868,8 @@
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>28</v>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5260,7 +5263,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="29"/>
       <c r="B1" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -5268,7 +5271,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -5276,7 +5279,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -5284,7 +5287,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -5294,7 +5297,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -5302,7 +5305,7 @@
         <v>0.0</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -5310,7 +5313,7 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -5320,7 +5323,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -5328,7 +5331,7 @@
         <v>0.0</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -5336,7 +5339,7 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -5344,7 +5347,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -5352,7 +5355,7 @@
         <v>3.0</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -5360,7 +5363,7 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -5368,7 +5371,7 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -5376,7 +5379,7 @@
         <v>6.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -5384,7 +5387,7 @@
         <v>7.0</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -5394,7 +5397,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -5402,7 +5405,7 @@
         <v>0.0</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -5410,7 +5413,7 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -5418,7 +5421,7 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -5426,7 +5429,7 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -5434,7 +5437,7 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -5442,7 +5445,7 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -5450,7 +5453,7 @@
         <v>6.0</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -5458,7 +5461,7 @@
         <v>7.0</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -5467,7 +5470,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -5475,7 +5478,7 @@
         <v>0.0</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -5483,7 +5486,7 @@
         <v>1.0</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -5493,7 +5496,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="29"/>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5501,7 +5504,7 @@
         <v>0.0</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -5509,7 +5512,7 @@
         <v>1.0</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -5517,7 +5520,7 @@
         <v>2.0</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -5525,7 +5528,7 @@
         <v>3.0</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -5534,7 +5537,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -5542,7 +5545,7 @@
         <v>0.0</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -5550,7 +5553,7 @@
         <v>1.0</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
